--- a/28/29Maps & Spatial Plans17.xlsx
+++ b/28/29Maps & Spatial Plans17.xlsx
@@ -1592,7 +1592,7 @@
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Line (Perceived Perfomance) </a:t>
+              <a:t>Perceived Perfomance </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1604,16 +1604,9 @@
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Box Plots (User Expectations) </a:t>
+              <a:t>User Expectations) </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>are calculated differently based on crowdsourced data</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1621,8 +1614,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18140331910387789"/>
-          <c:y val="0.46996637731924684"/>
+          <c:x val="0.34977047839879716"/>
+          <c:y val="0.47433284760649097"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2907,6 +2900,565 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.88</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.89</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.90</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="11">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.91</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="13">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.93</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="14">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="15">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.95</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v/>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{53AF1AFE-9361-443B-B2A1-293F5472AC8B}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:v>Orgniz.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9BFF5935-AF25-4022-B1A8-AD467046D3A3}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:v>Explor.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5A94277D-A3CB-4D9D-B07F-A47C97F3DAE0}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:v>Findbl.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{82BD3765-E111-4F84-BEDF-F1AF172168FD}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:v>Collab.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6C2C2DE8-C363-456E-88BE-A96B3616C590}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:v>Inf. Vol.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E28DFC4B-20AC-44E4-BBEA-3E76B2B57439}" formatIdx="5">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>Inf. Var.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3B6075D6-F49D-4EBA-8E76-E83DEF73F4A9}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:v>Rng.Inp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{577EBBD1-7058-4D25-8018-3AB42A139E52}" formatIdx="7">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>Phy. Man.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{84C14248-0E92-4E73-84FC-5EF69353821F}" formatIdx="9">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>Feedbk.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{26B3A1F3-874E-49E3-A76D-89EA2E8F9492}" formatIdx="10">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>Privcy.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AE89E2C9-0BD5-45D7-95E4-9107A8AB8BA7}" formatIdx="11">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>Secrty.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="10"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A0074FFB-E6C6-4DCC-A3D6-C94943A080AE}" formatIdx="12">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>Access.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="11"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F02EE242-6D22-49F3-89B8-E177FC79F351}" formatIdx="13">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:v>Prsnal.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="12"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EFDF05C-A303-4883-A316-AAFEBB52CC6B}" formatIdx="14">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:v>Sptial.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="13"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0848BC20-A60E-475F-8309-5C8A6526D11F}" formatIdx="15">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>Amb.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="14"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{46A85AD5-E642-42BF-A6E5-9531AFCB39DF}" formatIdx="16">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:v>Tempral.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="15"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.370000005"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:majorGridlines>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:spPr>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </cx:spPr>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f dir="row">_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
@@ -3385,565 +3937,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.47</cx:f>
-              <cx:v>Tempral.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="15"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.370000005"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines>
-          <cx:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-        </cx:majorGridlines>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0">
-      <cx:spPr>
-        <a:effectLst>
-          <a:glow>
-            <a:schemeClr val="accent1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </cx:spPr>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.80</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.81</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.82</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.83</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.84</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.85</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.86</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.87</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.88</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.89</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.90</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.91</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.92</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="13">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.93</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="14">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.94</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="15">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.95</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v/>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:plotSurface>
-          <cx:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </cx:spPr>
-        </cx:plotSurface>
-        <cx:series layoutId="boxWhisker" uniqueId="{53AF1AFE-9361-443B-B2A1-293F5472AC8B}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
-              <cx:v>Orgniz.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{9BFF5935-AF25-4022-B1A8-AD467046D3A3}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
-              <cx:v>Explor.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5A94277D-A3CB-4D9D-B07F-A47C97F3DAE0}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
-              <cx:v>Findbl.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{82BD3765-E111-4F84-BEDF-F1AF172168FD}" formatIdx="3">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.67</cx:f>
-              <cx:v>Collab.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6C2C2DE8-C363-456E-88BE-A96B3616C590}" formatIdx="4">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
-              <cx:v>Inf. Vol.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E28DFC4B-20AC-44E4-BBEA-3E76B2B57439}" formatIdx="5">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
-              <cx:v>Inf. Var.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3B6075D6-F49D-4EBA-8E76-E83DEF73F4A9}" formatIdx="6">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
-              <cx:v>Rng.Inp.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{577EBBD1-7058-4D25-8018-3AB42A139E52}" formatIdx="7">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
-              <cx:v>Phy. Man.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{84C14248-0E92-4E73-84FC-5EF69353821F}" formatIdx="9">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
-              <cx:v>Feedbk.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="8"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{26B3A1F3-874E-49E3-A76D-89EA2E8F9492}" formatIdx="10">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
-              <cx:v>Privcy.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="9"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{AE89E2C9-0BD5-45D7-95E4-9107A8AB8BA7}" formatIdx="11">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
-              <cx:v>Secrty.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="10"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{A0074FFB-E6C6-4DCC-A3D6-C94943A080AE}" formatIdx="12">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
-              <cx:v>Access.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="11"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F02EE242-6D22-49F3-89B8-E177FC79F351}" formatIdx="13">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
-              <cx:v>Prsnal.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="12"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3EFDF05C-A303-4883-A316-AAFEBB52CC6B}" formatIdx="14">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.77</cx:f>
-              <cx:v>Sptial.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="13"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0848BC20-A60E-475F-8309-5C8A6526D11F}" formatIdx="15">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
-              <cx:v>Amb.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="14"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{46A85AD5-E642-42BF-A6E5-9531AFCB39DF}" formatIdx="16">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
               <cx:v>Tempral.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13039,7 +13032,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Performance visualized by Line based on Crowdsourcing I</a:t>
+            <a:t> Performance ( Crowdsourcing I )</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
@@ -13053,16 +13046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33111</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>536576</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>64309</xdr:rowOff>
+      <xdr:rowOff>23489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>375557</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>12854</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13077,8 +13070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12497254" y="33837238"/>
-          <a:ext cx="5608410" cy="329545"/>
+          <a:off x="14170933" y="33796418"/>
+          <a:ext cx="2933246" cy="289476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13133,7 +13126,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>User Expectations visualized by Box Plots</a:t>
+            <a:t>User Expectations</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -13145,31 +13138,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> based </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>on </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Crowdsourcing II 5-point Likert</a:t>
+            <a:t> ( Crowdsourcing II )</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
@@ -14529,8 +14498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF191" sqref="AF191"/>
+    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG194" sqref="AG194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
